--- a/PCB/OctoSlime_Base_Unit_Light/BOM.xlsx
+++ b/PCB/OctoSlime_Base_Unit_Light/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -127,6 +127,36 @@
     <t>7</t>
   </si>
   <si>
+    <t>HDR-F-2.54_1x3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HDR-F-2.54_1X3</t>
+  </si>
+  <si>
+    <t>C146690</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>HDR-M-2.54_1X4</t>
+  </si>
+  <si>
+    <t>C124378</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>LED-0805_B</t>
   </si>
   <si>
@@ -145,7 +175,7 @@
     <t>C108412</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>LED-0805_R</t>
@@ -166,7 +196,7 @@
     <t>C72037</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>UMH3N</t>
@@ -184,7 +214,7 @@
     <t>C62892</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>FS8205</t>
@@ -202,7 +232,7 @@
     <t>C32254</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>XC6220B331MR-G</t>
@@ -220,7 +250,7 @@
     <t>C86534</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
   </si>
   <si>
     <t>22</t>
@@ -235,7 +265,7 @@
     <t>R0805</t>
   </si>
   <si>
-    <t>13</t>
+    <t>15</t>
   </si>
   <si>
     <t>12K</t>
@@ -244,7 +274,7 @@
     <t>R6,R19</t>
   </si>
   <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>5.1k</t>
@@ -253,7 +283,7 @@
     <t>R8,R9</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>100</t>
@@ -262,7 +292,7 @@
     <t>R11</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
   </si>
   <si>
     <t>1k</t>
@@ -271,7 +301,7 @@
     <t>R13,R14,R15</t>
   </si>
   <si>
-    <t>17</t>
+    <t>19</t>
   </si>
   <si>
     <t>12k</t>
@@ -280,7 +310,7 @@
     <t>R20</t>
   </si>
   <si>
-    <t>18</t>
+    <t>20</t>
   </si>
   <si>
     <t>470</t>
@@ -289,7 +319,7 @@
     <t>R21</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>180k</t>
@@ -298,9 +328,6 @@
     <t>R22</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>0805W8F1501T5E</t>
   </si>
   <si>
@@ -316,7 +343,7 @@
     <t>C4310</t>
   </si>
   <si>
-    <t>21</t>
+    <t>23</t>
   </si>
   <si>
     <t>0805W8F3601T5E</t>
@@ -331,6 +358,9 @@
     <t>C18359</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>R-RJ45R08P-A009</t>
   </si>
   <si>
@@ -346,7 +376,7 @@
     <t>C2902700</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
   </si>
   <si>
     <t>TS342A2P-WZ</t>
@@ -364,7 +394,7 @@
     <t>C557591</t>
   </si>
   <si>
-    <t>24</t>
+    <t>26</t>
   </si>
   <si>
     <t>ESP-12F(ESP8266MOD)</t>
@@ -382,7 +412,7 @@
     <t>C82891</t>
   </si>
   <si>
-    <t>25</t>
+    <t>27</t>
   </si>
   <si>
     <t>TCA9548APWR</t>
@@ -400,7 +430,7 @@
     <t>C130026</t>
   </si>
   <si>
-    <t>26</t>
+    <t>28</t>
   </si>
   <si>
     <t>CH340C</t>
@@ -418,7 +448,7 @@
     <t>C84681</t>
   </si>
   <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
     <t>DW01A</t>
@@ -436,7 +466,7 @@
     <t>C85680</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>TP4056</t>
@@ -454,7 +484,7 @@
     <t>C16581</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
     <t>MT9700</t>
@@ -472,7 +502,7 @@
     <t>C89855</t>
   </si>
   <si>
-    <t>30</t>
+    <t>32</t>
   </si>
   <si>
     <t>S2B-PH-K-S(LF)(SN)</t>
@@ -490,7 +520,7 @@
     <t>C173752</t>
   </si>
   <si>
-    <t>31</t>
+    <t>33</t>
   </si>
   <si>
     <t>MC-107DM</t>
@@ -882,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1177,16 +1207,16 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -1197,34 +1227,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1235,34 +1265,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -1273,19 +1303,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1294,13 +1324,13 @@
         <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -1311,31 +1341,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>36</v>
@@ -1349,34 +1379,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -1387,34 +1417,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -1425,19 +1455,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1463,19 +1493,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1501,19 +1531,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1539,19 +1569,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1577,19 +1607,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1615,19 +1645,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1653,34 +1683,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
         <v>17</v>
@@ -1691,34 +1721,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -1729,31 +1759,31 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>109</v>
-      </c>
-      <c r="I23" t="s">
-        <v>110</v>
       </c>
       <c r="J23" t="s">
         <v>36</v>
@@ -1767,31 +1797,31 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
         <v>113</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" t="s">
         <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" t="s">
-        <v>116</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
@@ -1805,31 +1835,31 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>120</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" t="s">
-        <v>122</v>
       </c>
       <c r="J25" t="s">
         <v>36</v>
@@ -1843,31 +1873,31 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
         <v>125</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>126</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" t="s">
-        <v>128</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
@@ -1881,31 +1911,31 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
         <v>131</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>132</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" t="s">
-        <v>134</v>
       </c>
       <c r="J27" t="s">
         <v>36</v>
@@ -1919,31 +1949,31 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" t="s">
-        <v>140</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
@@ -1957,31 +1987,31 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
         <v>141</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
         <v>143</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>144</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" t="s">
-        <v>146</v>
       </c>
       <c r="J29" t="s">
         <v>36</v>
@@ -1995,31 +2025,31 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
         <v>147</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>148</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
         <v>149</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" t="s">
-        <v>152</v>
       </c>
       <c r="J30" t="s">
         <v>36</v>
@@ -2033,31 +2063,31 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
         <v>153</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>154</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>156</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" t="s">
-        <v>158</v>
       </c>
       <c r="J31" t="s">
         <v>36</v>
@@ -2071,31 +2101,31 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
         <v>159</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>160</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" t="s">
         <v>161</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>162</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
       </c>
       <c r="J32" t="s">
         <v>36</v>
@@ -2107,8 +2137,84 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
